--- a/data/trans_dic/CoPsoQ_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4445305558751287</v>
+        <v>0.4476274828436914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4053264134509303</v>
+        <v>0.3997611168766046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1288959746195366</v>
+        <v>0.1459642111047352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2779766255611105</v>
+        <v>0.2828101266925181</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.34627271427052</v>
+        <v>0.3488185934792831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3613940135393519</v>
+        <v>0.3667352744038421</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4010434820779489</v>
+        <v>0.3898210631257155</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4039622786683015</v>
+        <v>0.4066918385305804</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2578955326487239</v>
+        <v>0.2528475414127642</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5910441647162216</v>
+        <v>0.6003680463082475</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5663286427115699</v>
+        <v>0.5725267732287828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4738122135048651</v>
+        <v>0.4821759633538842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4555769437108239</v>
+        <v>0.4611608656401221</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5879147930795607</v>
+        <v>0.5931530495523225</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7092832066669811</v>
+        <v>0.7221078607747697</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.511639716748487</v>
+        <v>0.5103768028796489</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5472685076909967</v>
+        <v>0.5450287229782076</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.511787131551424</v>
+        <v>0.5238137240950781</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.551412037948796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4137709441713072</v>
+        <v>0.4137709441713073</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5646103544570944</v>
@@ -773,7 +773,7 @@
         <v>0.5584444213379709</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.4441484668046601</v>
+        <v>0.44414846680466</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.536241237982833</v>
+        <v>0.536578094826712</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5179922379602472</v>
+        <v>0.5156369812482368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3448757844662214</v>
+        <v>0.3500457486397444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5238223358170345</v>
+        <v>0.5235843044267606</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.526573789638574</v>
+        <v>0.529898053815975</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4209918543961908</v>
+        <v>0.4242666260478891</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5386436660182112</v>
+        <v>0.5413062767285445</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5345462375976403</v>
+        <v>0.5298411649888821</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4013092845338351</v>
+        <v>0.39658327298651</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6057470921408064</v>
+        <v>0.6063901065747899</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5847399705935937</v>
+        <v>0.5818275031612717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4773038134553244</v>
+        <v>0.4865502648017573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.610268282133582</v>
+        <v>0.6074132425565556</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6090219718875099</v>
+        <v>0.6055561368018347</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5366305175799879</v>
+        <v>0.5414601140167642</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5937803061090683</v>
+        <v>0.5933361125552804</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5845312495794907</v>
+        <v>0.5817464783740393</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4916041411858633</v>
+        <v>0.4873606532722256</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5896009632889935</v>
+        <v>0.591693738824484</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5062390710436352</v>
+        <v>0.5094997244272411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2986987862961031</v>
+        <v>0.2940358751238251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5193487817866865</v>
+        <v>0.5207729808688183</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4754266115892332</v>
+        <v>0.4683887601769603</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3190262251015979</v>
+        <v>0.3182043796584256</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5792395963834287</v>
+        <v>0.57548362333803</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5124241357205088</v>
+        <v>0.5104717365638965</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3307538783819689</v>
+        <v>0.3363064611365838</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7071072818884179</v>
+        <v>0.710372742169737</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6187105435458552</v>
+        <v>0.6235498710475116</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4975330212644676</v>
+        <v>0.4968853339868318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6554271139034865</v>
+        <v>0.6596956879333168</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5905462954743973</v>
+        <v>0.5885134100846958</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4827316238823603</v>
+        <v>0.4866524113614479</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6723476999363653</v>
+        <v>0.6644642492335692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5915116386697248</v>
+        <v>0.5920653968739301</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4628785255273323</v>
+        <v>0.4656310138049657</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5488067250954894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3957371549505922</v>
+        <v>0.3957371549505923</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.5428359247719069</v>
@@ -982,7 +982,7 @@
         <v>0.5508484132985753</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5661072615322678</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5538239386268334</v>
+        <v>0.5534782867867692</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5215832235587338</v>
+        <v>0.5209672801527633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.344458244198092</v>
+        <v>0.3441492397787793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5105786630657272</v>
+        <v>0.5096340372862053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5212429399603222</v>
+        <v>0.5204753984036495</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5439744519389743</v>
+        <v>0.5437429296050121</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5298683654346767</v>
+        <v>0.5296664016134647</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3884677778824311</v>
+        <v>0.3874679848179215</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6091088095154771</v>
+        <v>0.6085287758466619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5757224754015332</v>
+        <v>0.574428203455467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4500095282735813</v>
+        <v>0.4523759079423374</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5766594397959022</v>
+        <v>0.57929886167561</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.585763811623974</v>
+        <v>0.5827432406679827</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5861255168328399</v>
+        <v>0.5857600492927389</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5721133539368397</v>
+        <v>0.5705064383321579</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4641434766418456</v>
+        <v>0.4583140816574485</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>78975</v>
+        <v>79525</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57272</v>
+        <v>56486</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5269</v>
+        <v>5966</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36961</v>
+        <v>37604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23937</v>
+        <v>24113</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8168</v>
+        <v>8288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>124574</v>
+        <v>121088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>85005</v>
+        <v>85579</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16370</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>105005</v>
+        <v>106661</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>80022</v>
+        <v>80897</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19368</v>
+        <v>19709</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60576</v>
+        <v>61318</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40641</v>
+        <v>41003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16030</v>
+        <v>16320</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158928</v>
+        <v>158536</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>115160</v>
+        <v>114689</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32486</v>
+        <v>33250</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>479365</v>
+        <v>479666</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>478211</v>
+        <v>476037</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>100791</v>
+        <v>102302</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>295179</v>
+        <v>295045</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>342559</v>
+        <v>344721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104195</v>
+        <v>105006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>785044</v>
+        <v>788925</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>841239</v>
+        <v>833835</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>216608</v>
+        <v>214057</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>541499</v>
+        <v>542074</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>539833</v>
+        <v>537144</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>139493</v>
+        <v>142196</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>343892</v>
+        <v>342283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>396195</v>
+        <v>393940</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>132816</v>
+        <v>134011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>865403</v>
+        <v>864755</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>919903</v>
+        <v>915521</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>265345</v>
+        <v>263054</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>185323</v>
+        <v>185981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>176393</v>
+        <v>177529</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41247</v>
+        <v>40603</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>118673</v>
+        <v>118998</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>146647</v>
+        <v>144476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>36335</v>
+        <v>36242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>314424</v>
+        <v>312385</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>336607</v>
+        <v>335324</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>83344</v>
+        <v>84743</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>222257</v>
+        <v>223284</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>215582</v>
+        <v>217268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68703</v>
+        <v>68614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>149767</v>
+        <v>150742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>182156</v>
+        <v>181529</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54980</v>
+        <v>55427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>364965</v>
+        <v>360686</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>388559</v>
+        <v>388922</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>116637</v>
+        <v>117331</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>767553</v>
+        <v>767074</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>736965</v>
+        <v>736094</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>162315</v>
+        <v>162169</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>472274</v>
+        <v>471400</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>535903</v>
+        <v>535114</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1257067</v>
+        <v>1256532</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1293442</v>
+        <v>1292949</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>332222</v>
+        <v>331366</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>844173</v>
+        <v>843369</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>813460</v>
+        <v>811631</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>212052</v>
+        <v>213167</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>533397</v>
+        <v>535839</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>602238</v>
+        <v>599133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1354473</v>
+        <v>1353629</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1396565</v>
+        <v>1392642</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>396940</v>
+        <v>391955</v>
       </c>
     </row>
     <row r="20">
